--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCDC03A-AD46-4C86-9F23-8A09C76C7D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="38565" yWindow="45" windowWidth="21240" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лаба1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Ардаширова Амина Рифовна</t>
   </si>
@@ -127,12 +129,36 @@
   </si>
   <si>
     <t>Оценка</t>
+  </si>
+  <si>
+    <t>Задание</t>
+  </si>
+  <si>
+    <t>уровень 3 задача 2 без POW</t>
+  </si>
+  <si>
+    <t>3-1 Без Pow и factorial</t>
+  </si>
+  <si>
+    <t>3-1 Без Pow</t>
+  </si>
+  <si>
+    <t>3й ровень</t>
+  </si>
+  <si>
+    <t>3й уровень</t>
+  </si>
+  <si>
+    <t>1й уровень 14 и 15</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -739,20 +765,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -787,7 +813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -802,7 +828,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -817,7 +843,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -832,7 +858,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -847,7 +873,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -862,7 +888,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -877,7 +903,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -892,7 +918,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -907,7 +933,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -922,7 +948,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -937,7 +963,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -952,7 +978,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -967,7 +993,7 @@
       <c r="J13" s="13"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -982,7 +1008,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -997,7 +1023,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1012,7 +1038,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1027,11 +1053,13 @@
       <c r="J17" s="13"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1042,7 +1070,7 @@
       <c r="J18" s="13"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1057,7 +1085,7 @@
       <c r="J19" s="13"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1072,7 +1100,7 @@
       <c r="J20" s="13"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1087,7 +1115,7 @@
       <c r="J21" s="13"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1102,7 +1130,7 @@
       <c r="J22" s="13"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1117,7 +1145,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1132,7 +1160,7 @@
       <c r="J24" s="13"/>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1147,7 +1175,7 @@
       <c r="J25" s="13"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -1166,4 +1194,87 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C291ED67-896E-4F4A-9E68-605AC0B44275}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCDC03A-AD46-4C86-9F23-8A09C76C7D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="38565" yWindow="45" windowWidth="21240" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лаба1" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Лаба1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Ардаширова Амина Рифовна</t>
   </si>
@@ -153,12 +152,15 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -765,20 +767,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -813,7 +815,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -828,7 +830,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -843,11 +845,13 @@
       <c r="J3" s="13"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="13">
+        <v>5</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -858,7 +862,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -873,7 +877,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -888,7 +892,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -903,7 +907,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -918,7 +922,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -933,11 +937,13 @@
       <c r="J9" s="13"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13">
+        <v>5</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -948,11 +954,13 @@
       <c r="J10" s="13"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -963,7 +971,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -978,7 +986,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -993,11 +1001,13 @@
       <c r="J13" s="13"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1008,7 +1018,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1023,7 +1033,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1038,7 +1048,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1053,12 +1063,12 @@
       <c r="J17" s="13"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>43</v>
+      <c r="B18" s="13">
+        <v>5</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1070,7 +1080,7 @@
       <c r="J18" s="13"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1085,11 +1095,13 @@
       <c r="J19" s="13"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="13">
+        <v>5</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1100,7 +1112,7 @@
       <c r="J20" s="13"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1115,7 +1127,7 @@
       <c r="J21" s="13"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1130,7 +1142,7 @@
       <c r="J22" s="13"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1145,7 +1157,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1160,7 +1172,7 @@
       <c r="J24" s="13"/>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1175,7 +1187,7 @@
       <c r="J25" s="13"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -1197,20 +1209,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C291ED67-896E-4F4A-9E68-605AC0B44275}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1218,7 +1230,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1238,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1234,7 +1246,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1242,7 +1254,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1250,7 +1262,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1258,7 +1270,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1266,7 +1278,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Ардаширова Амина Рифовна</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>+</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
 </sst>
 </file>
@@ -771,7 +768,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,8 +1002,8 @@
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>44</v>
+      <c r="B14" s="13">
+        <v>5</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C178F2C-F289-4CDE-9B54-CA924FD79764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="42000" yWindow="11835" windowWidth="16995" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Ардаширова Амина Рифовна</t>
   </si>
@@ -152,12 +153,15 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>++</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -485,6 +489,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -764,20 +770,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -812,7 +818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -827,7 +833,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -842,14 +848,16 @@
       <c r="J3" s="13"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="13">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -859,7 +867,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -874,7 +882,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -889,7 +897,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -904,7 +912,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -919,7 +927,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -934,7 +942,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -951,7 +959,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -968,7 +976,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -983,7 +991,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -998,7 +1006,7 @@
       <c r="J13" s="13"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1015,7 +1023,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1030,7 +1038,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1045,7 +1053,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1060,7 +1068,7 @@
       <c r="J17" s="13"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1077,11 +1085,13 @@
       <c r="J18" s="13"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1092,7 +1102,7 @@
       <c r="J19" s="13"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1109,7 +1119,7 @@
       <c r="J20" s="13"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1124,7 +1134,7 @@
       <c r="J21" s="13"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1139,7 +1149,7 @@
       <c r="J22" s="13"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1154,7 +1164,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1169,7 +1179,7 @@
       <c r="J24" s="13"/>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1184,11 +1194,13 @@
       <c r="J25" s="13"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="22" t="s">
+        <v>44</v>
+      </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -1206,20 +1218,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1227,7 +1239,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +1247,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1243,7 +1255,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1251,7 +1263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1259,7 +1271,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1267,7 +1279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1275,7 +1287,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C178F2C-F289-4CDE-9B54-CA924FD79764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="42000" yWindow="11835" windowWidth="16995" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лаба1" sheetId="2" r:id="rId2"/>
+    <sheet name="Лаба1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Ардаширова Амина Рифовна</t>
   </si>
@@ -161,7 +160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -187,7 +186,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -459,11 +458,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -491,6 +542,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -770,446 +826,482 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="11"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="13">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="1"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="1"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="1"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="13">
         <v>5</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="1"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="1"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="13"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="1"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="13"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="1"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="13">
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="1"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="13"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="1"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="13">
+        <v>5</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="1"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="13"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="1"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="13">
         <v>5</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="1"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="1"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="13">
         <v>5</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="1"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="13"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="1"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="13"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="1"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="13"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="1"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="13"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="1"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="13"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="1"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="B26" s="22">
+        <v>5</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="17"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1218,20 +1310,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1239,7 +1331,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1339,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1255,7 +1347,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1263,7 +1355,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1271,7 +1363,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1279,7 +1371,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1287,7 +1379,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91A732A-72A7-4479-B606-3FC662C610E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лаба1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>Ардаширова Амина Рифовна</t>
   </si>
@@ -151,16 +161,55 @@
     <t>1й уровень 14 и 15</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>++</t>
+    <t>Примечания к кр-1</t>
+  </si>
+  <si>
+    <t>ответ неверный в 4м номере</t>
+  </si>
+  <si>
+    <t>ответ неверный в 5 (и возведение в степень присутствует)</t>
+  </si>
+  <si>
+    <t>ответ неверный в 3м номере</t>
+  </si>
+  <si>
+    <t>номера 1-3 имеют неверные ответы</t>
+  </si>
+  <si>
+    <t>ответ неверный во 2м номере</t>
+  </si>
+  <si>
+    <t>ответ неверный в 3м номере (в обоих ответах)</t>
+  </si>
+  <si>
+    <t>ответ неверный в 3м номере (в 5 присутствует возведение в степень)</t>
+  </si>
+  <si>
+    <t>ответы неверные в 3м и 4м номерах</t>
+  </si>
+  <si>
+    <t>ответы неверные в 3м и 4м номерах (5го номера нет) (-50% за списывание)</t>
+  </si>
+  <si>
+    <t>ответ неверный в 3м номере, 2го нет совсем</t>
+  </si>
+  <si>
+    <t>все ответы мимо</t>
+  </si>
+  <si>
+    <t>номера 2-4 имеют неверные ответы</t>
+  </si>
+  <si>
+    <t>номера 2-4 имеют неверные ответы, 5й номер - решение не принимается</t>
+  </si>
+  <si>
+    <t>неявка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -360,55 +409,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -514,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -533,25 +552,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -826,29 +903,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -858,472 +936,736 @@
         <v>28</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="I1" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10"/>
-      <c r="C2" s="24"/>
+      <c r="C2" s="21">
+        <v>4</v>
+      </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="15"/>
+      <c r="J2" s="10">
+        <f>B2+2*C2+D2+E2+G2+H2+2*F2+2*I2</f>
+        <v>8</v>
+      </c>
+      <c r="K2" s="12">
+        <f>_xlfn.FLOOR.MATH(1+J2/10)</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="C3" s="25"/>
+      <c r="C3" s="22">
+        <v>0</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="16"/>
+      <c r="J3" s="10">
+        <f t="shared" ref="J3:J26" si="0">B3+2*C3+D3+E3+G3+H3+2*F3+2*I3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <f t="shared" ref="K3:K26" si="1">_xlfn.FLOOR.MATH(1+J3/10)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="13">
         <v>5</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
+      <c r="C4" s="22">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="16"/>
+      <c r="J4" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K4" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="25"/>
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="16"/>
+      <c r="J5" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="25"/>
+      <c r="C6" s="22">
+        <v>4</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="16"/>
+      <c r="J6" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K6" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="25"/>
+      <c r="C7" s="22">
+        <v>3</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="16"/>
+      <c r="J7" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K7" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="22">
+        <v>0</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="16"/>
+      <c r="J8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="25"/>
+      <c r="C9" s="22">
+        <v>3</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="16"/>
+      <c r="J9" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="13">
         <v>5</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="22">
+        <v>2</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="16"/>
+      <c r="J10" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K10" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="25"/>
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="22">
+        <v>4</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="16"/>
+      <c r="J11" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K11" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="13"/>
-      <c r="C12" s="25"/>
+      <c r="C12" s="22">
+        <v>1</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="16"/>
+      <c r="J12" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="13"/>
-      <c r="C13" s="25"/>
+      <c r="C13" s="22">
+        <v>1</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="16"/>
+      <c r="J13" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="13">
         <v>5</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="22">
+        <v>4</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="16"/>
+      <c r="J14" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="K14" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="13"/>
-      <c r="C15" s="25"/>
+      <c r="C15" s="22">
+        <v>4</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="16"/>
+      <c r="J15" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="13">
         <v>5</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="1" t="s">
-        <v>43</v>
+      <c r="C16" s="22">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="16"/>
+      <c r="J16" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="K16" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="13"/>
-      <c r="C17" s="25"/>
+      <c r="C17" s="22">
+        <v>2</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="16"/>
+      <c r="J17" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="13">
         <v>5</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="22">
+        <v>5</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="16"/>
+      <c r="J18" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="26"/>
+      <c r="B19" s="18">
+        <v>0</v>
+      </c>
+      <c r="C19" s="23">
+        <v>5</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="16"/>
+      <c r="J19" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K19" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="13">
         <v>5</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="22">
+        <v>4</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="16"/>
+      <c r="J20" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="K20" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="13"/>
-      <c r="C21" s="25"/>
+      <c r="C21" s="22">
+        <v>4</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="14"/>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="16"/>
+      <c r="J21" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K21" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="13"/>
-      <c r="C22" s="25"/>
+      <c r="C22" s="22">
+        <v>4</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="14"/>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="16"/>
+      <c r="J22" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="13"/>
-      <c r="C23" s="25"/>
+      <c r="C23" s="22">
+        <v>4</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="14"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="16"/>
+      <c r="J23" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="13"/>
-      <c r="C24" s="25"/>
+      <c r="C24" s="22">
+        <v>4</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="14"/>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="16"/>
+      <c r="J24" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K24" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="13"/>
-      <c r="C25" s="25"/>
+      <c r="C25" s="22">
+        <v>1</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="14"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="16"/>
+      <c r="J25" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="19">
         <v>5</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="17"/>
+      <c r="C26" s="24">
+        <v>5</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K26" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L26" s="24"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C26 L2:L26">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C26">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1331,7 +1673,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +1681,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1347,7 +1689,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1355,7 +1697,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1363,7 +1705,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1371,7 +1713,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1379,7 +1721,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91A732A-72A7-4479-B606-3FC662C610E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31915CA9-DC06-466D-94F1-19AA2D987D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -907,7 +907,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -961,7 +961,9 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
       <c r="C2" s="21">
         <v>4</v>
       </c>
@@ -987,7 +989,9 @@
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="13">
+        <v>0</v>
+      </c>
       <c r="C3" s="22">
         <v>0</v>
       </c>

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31915CA9-DC06-466D-94F1-19AA2D987D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лаба1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -209,7 +208,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -903,23 +902,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -957,7 +956,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -985,12 +984,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" s="22">
         <v>0</v>
@@ -1003,7 +1002,7 @@
       <c r="I3" s="16"/>
       <c r="J3" s="10">
         <f t="shared" ref="J3:J26" si="0">B3+2*C3+D3+E3+G3+H3+2*F3+2*I3</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K3" s="12">
         <f t="shared" ref="K3:K26" si="1">_xlfn.FLOOR.MATH(1+J3/10)</f>
@@ -1013,7 +1012,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1024,7 +1023,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1033,15 +1032,15 @@
       <c r="I4" s="16"/>
       <c r="J4" s="10">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K4" s="12">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1067,7 +1066,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1093,11 +1092,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
       <c r="C7" s="22">
         <v>3</v>
       </c>
@@ -1119,7 +1120,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1145,7 +1146,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1253,7 +1254,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1279,7 +1280,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1296,7 +1297,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="16"/>
       <c r="J14" s="10">
-        <f t="shared" si="0"/>
+        <f>B14+2*C14+D14+E14+G14+H14+2*F14+2*I14</f>
         <v>13</v>
       </c>
       <c r="K14" s="12">
@@ -1307,11 +1308,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13">
+        <v>5</v>
+      </c>
       <c r="C15" s="22">
         <v>4</v>
       </c>
@@ -1323,17 +1326,17 @@
       <c r="I15" s="16"/>
       <c r="J15" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K15" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1344,7 +1347,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1353,7 +1356,7 @@
       <c r="I16" s="16"/>
       <c r="J16" s="10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K16" s="12">
         <f t="shared" si="1"/>
@@ -1363,11 +1366,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="13">
+        <v>50</v>
+      </c>
       <c r="C17" s="22">
         <v>2</v>
       </c>
@@ -1379,17 +1384,17 @@
       <c r="I17" s="16"/>
       <c r="J17" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="K17" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L17" s="22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1415,7 +1420,7 @@
       </c>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1441,7 +1446,7 @@
       </c>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1469,11 +1474,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
       <c r="C21" s="22">
         <v>4</v>
       </c>
@@ -1495,7 +1502,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1521,11 +1528,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="13">
+        <v>5</v>
+      </c>
       <c r="C23" s="22">
         <v>4</v>
       </c>
@@ -1537,21 +1546,23 @@
       <c r="I23" s="16"/>
       <c r="J23" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K23" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="13">
+        <v>5</v>
+      </c>
       <c r="C24" s="22">
         <v>4</v>
       </c>
@@ -1563,17 +1574,17 @@
       <c r="I24" s="16"/>
       <c r="J24" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K24" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1599,7 +1610,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -1610,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -1618,12 +1629,12 @@
       <c r="H26" s="14"/>
       <c r="I26" s="17"/>
       <c r="J26" s="7">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>B26+2*C26+D26+E26+G26+H26+2*F26+2*I26</f>
+        <v>20</v>
       </c>
       <c r="K26" s="12">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26" s="24"/>
     </row>
@@ -1656,20 +1667,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1677,7 +1688,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1685,7 +1696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1693,7 +1704,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1701,7 +1712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1709,7 +1720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1717,7 +1728,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1725,7 +1736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414A9D9F-2EA7-43A5-8627-1B529313DB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лаба1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -208,7 +209,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -528,11 +529,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -562,6 +578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -902,23 +919,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -956,7 +973,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -973,18 +990,18 @@
       <c r="H2" s="11"/>
       <c r="I2" s="15"/>
       <c r="J2" s="10">
-        <f>B2+2*C2+D2+E2+G2+H2+2*F2+2*I2</f>
-        <v>8</v>
+        <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+2.5*I2-5,0)</f>
+        <v>3</v>
       </c>
       <c r="K2" s="12">
-        <f>_xlfn.FLOOR.MATH(1+J2/10)</f>
-        <v>1</v>
+        <f>_xlfn.FLOOR.MATH(J2/10)</f>
+        <v>0</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1001,18 +1018,18 @@
       <c r="H3" s="1"/>
       <c r="I3" s="16"/>
       <c r="J3" s="10">
-        <f t="shared" ref="J3:J26" si="0">B3+2*C3+D3+E3+G3+H3+2*F3+2*I3</f>
-        <v>5</v>
+        <f t="shared" ref="J3:J26" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+2.5*I3-5,0)</f>
+        <v>0</v>
       </c>
       <c r="K3" s="12">
-        <f t="shared" ref="K3:K26" si="1">_xlfn.FLOOR.MATH(1+J3/10)</f>
-        <v>1</v>
+        <f t="shared" ref="K3:K26" si="1">_xlfn.FLOOR.MATH(J3/10)</f>
+        <v>0</v>
       </c>
       <c r="L3" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1032,15 +1049,15 @@
       <c r="I4" s="16"/>
       <c r="J4" s="10">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K4" s="12">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1060,13 +1077,13 @@
       </c>
       <c r="K5" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1082,27 +1099,29 @@
       <c r="I6" s="16"/>
       <c r="J6" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K6" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" s="22">
         <v>3</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1114,13 +1133,13 @@
       </c>
       <c r="K7" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1140,17 +1159,19 @@
       </c>
       <c r="K8" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13">
+        <v>0</v>
+      </c>
       <c r="C9" s="22">
         <v>3</v>
       </c>
@@ -1162,17 +1183,17 @@
       <c r="I9" s="16"/>
       <c r="J9" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K9" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1182,7 +1203,9 @@
       <c r="C10" s="22">
         <v>2</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1190,17 +1213,17 @@
       <c r="I10" s="16"/>
       <c r="J10" s="10">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1218,17 +1241,17 @@
       <c r="I11" s="16"/>
       <c r="J11" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K11" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1244,21 +1267,23 @@
       <c r="I12" s="16"/>
       <c r="J12" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="13">
+        <v>5</v>
+      </c>
       <c r="C13" s="22">
         <v>1</v>
       </c>
@@ -1274,13 +1299,13 @@
       </c>
       <c r="K13" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1297,18 +1322,18 @@
       <c r="H14" s="1"/>
       <c r="I14" s="16"/>
       <c r="J14" s="10">
-        <f>B14+2*C14+D14+E14+G14+H14+2*F14+2*I14</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="K14" s="12">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" s="22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1326,17 +1351,17 @@
       <c r="I15" s="16"/>
       <c r="J15" s="10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K15" s="12">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" s="22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1349,29 +1374,31 @@
       <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="16"/>
       <c r="J16" s="10">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K16" s="12">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" s="22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="13">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C17" s="22">
         <v>2</v>
@@ -1384,17 +1411,17 @@
       <c r="I17" s="16"/>
       <c r="J17" s="10">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="K17" s="12">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L17" s="22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1412,15 +1439,15 @@
       <c r="I18" s="16"/>
       <c r="J18" s="10">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K18" s="12">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1438,15 +1465,15 @@
       <c r="I19" s="16"/>
       <c r="J19" s="10">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K19" s="12">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1464,17 +1491,17 @@
       <c r="I20" s="16"/>
       <c r="J20" s="10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K20" s="12">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20" s="22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1492,17 +1519,17 @@
       <c r="I21" s="16"/>
       <c r="J21" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K21" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1518,17 +1545,17 @@
       <c r="I22" s="16"/>
       <c r="J22" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K22" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1546,17 +1573,17 @@
       <c r="I23" s="16"/>
       <c r="J23" s="10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K23" s="12">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L23" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1566,7 +1593,9 @@
       <c r="C24" s="22">
         <v>4</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1574,21 +1603,23 @@
       <c r="I24" s="16"/>
       <c r="J24" s="10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K24" s="12">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="13"/>
+      <c r="B25" s="13">
+        <v>5</v>
+      </c>
       <c r="C25" s="22">
         <v>1</v>
       </c>
@@ -1604,13 +1635,13 @@
       </c>
       <c r="K25" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -1628,13 +1659,13 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="7">
-        <f>B26+2*C26+D26+E26+G26+H26+2*F26+2*I26</f>
-        <v>20</v>
-      </c>
-      <c r="K26" s="12">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="J26" s="25">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K26" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="L26" s="24"/>
     </row>
@@ -1667,20 +1698,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1688,7 +1719,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1696,7 +1727,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1704,7 +1735,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1712,7 +1743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1720,7 +1751,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1728,7 +1759,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1736,7 +1767,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414A9D9F-2EA7-43A5-8627-1B529313DB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лаба1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>Ардаширова Амина Рифовна</t>
   </si>
@@ -185,18 +184,12 @@
     <t>ответ неверный в 3м номере (в 5 присутствует возведение в степень)</t>
   </si>
   <si>
-    <t>ответы неверные в 3м и 4м номерах</t>
-  </si>
-  <si>
     <t>ответы неверные в 3м и 4м номерах (5го номера нет) (-50% за списывание)</t>
   </si>
   <si>
     <t>ответ неверный в 3м номере, 2го нет совсем</t>
   </si>
   <si>
-    <t>все ответы мимо</t>
-  </si>
-  <si>
     <t>номера 2-4 имеют неверные ответы</t>
   </si>
   <si>
@@ -204,12 +197,15 @@
   </si>
   <si>
     <t>неявка</t>
+  </si>
+  <si>
+    <t>переписана верно все номера</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -919,23 +915,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -973,12 +969,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="21">
         <v>4</v>
@@ -991,7 +987,7 @@
       <c r="I2" s="15"/>
       <c r="J2" s="10">
         <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+2.5*I2-5,0)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K2" s="12">
         <f>_xlfn.FLOOR.MATH(J2/10)</f>
@@ -1001,7 +997,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1019,17 +1015,17 @@
       <c r="I3" s="16"/>
       <c r="J3" s="10">
         <f t="shared" ref="J3:J26" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+2.5*I3-5,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K3" s="12">
         <f t="shared" ref="K3:K26" si="1">_xlfn.FLOOR.MATH(J3/10)</f>
         <v>0</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1057,7 +1053,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1080,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1109,7 +1105,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1117,7 +1113,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1129,17 +1125,17 @@
       <c r="I7" s="16"/>
       <c r="J7" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K7" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1162,15 +1158,15 @@
         <v>0</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" s="22">
         <v>3</v>
@@ -1183,17 +1179,17 @@
       <c r="I9" s="16"/>
       <c r="J9" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K9" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1204,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1213,7 +1209,7 @@
       <c r="I10" s="16"/>
       <c r="J10" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="1"/>
@@ -1223,12 +1219,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" s="22">
         <v>4</v>
@@ -1241,7 +1237,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K11" s="12">
         <f t="shared" si="1"/>
@@ -1251,7 +1247,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1274,10 +1270,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1302,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1333,7 +1329,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1361,7 +1357,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1375,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1383,7 +1379,7 @@
       <c r="I16" s="16"/>
       <c r="J16" s="10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K16" s="12">
         <f t="shared" si="1"/>
@@ -1393,7 +1389,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1418,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1447,17 +1443,19 @@
       </c>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19" s="23">
         <v>5</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1465,15 +1463,15 @@
       <c r="I19" s="16"/>
       <c r="J19" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K19" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1483,7 +1481,9 @@
       <c r="C20" s="22">
         <v>4</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1491,22 +1491,22 @@
       <c r="I20" s="16"/>
       <c r="J20" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K20" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C21" s="22">
         <v>4</v>
@@ -1519,7 +1519,7 @@
       <c r="I21" s="16"/>
       <c r="J21" s="10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K21" s="12">
         <f t="shared" si="1"/>
@@ -1529,7 +1529,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1565,7 +1565,9 @@
       <c r="C23" s="22">
         <v>4</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1583,7 +1585,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1594,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1603,17 +1605,17 @@
       <c r="I24" s="16"/>
       <c r="J24" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K24" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1621,7 +1623,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1631,17 +1633,17 @@
       <c r="I25" s="16"/>
       <c r="J25" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K25" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -1698,20 +1700,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1719,7 +1721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1727,7 +1729,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1735,7 +1737,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1743,7 +1745,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1751,7 +1753,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1759,7 +1761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1767,7 +1769,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359CE2C1-EB09-4C49-B623-C9ED833C3933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лаба1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>Ардаширова Амина Рифовна</t>
   </si>
@@ -133,12 +134,6 @@
     <t>КР-3</t>
   </si>
   <si>
-    <t>Итог</t>
-  </si>
-  <si>
-    <t>Оценка</t>
-  </si>
-  <si>
     <t>Задание</t>
   </si>
   <si>
@@ -184,12 +179,18 @@
     <t>ответ неверный в 3м номере (в 5 присутствует возведение в степень)</t>
   </si>
   <si>
+    <t>ответы неверные в 3м и 4м номерах</t>
+  </si>
+  <si>
     <t>ответы неверные в 3м и 4м номерах (5го номера нет) (-50% за списывание)</t>
   </si>
   <si>
     <t>ответ неверный в 3м номере, 2го нет совсем</t>
   </si>
   <si>
+    <t>все ответы мимо</t>
+  </si>
+  <si>
     <t>номера 2-4 имеют неверные ответы</t>
   </si>
   <si>
@@ -199,13 +200,19 @@
     <t>неявка</t>
   </si>
   <si>
-    <t>переписана верно все номера</t>
+    <t>Half-term</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Total score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,21 +382,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -526,16 +518,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -544,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -562,24 +565,475 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="51">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -915,30 +1369,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="69.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -960,23 +1418,26 @@
         <v>33</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10">
-        <v>4</v>
-      </c>
-      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20">
         <v>4</v>
       </c>
       <c r="D2" s="11"/>
@@ -984,55 +1445,63 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="15"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="10">
-        <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+2.5*I2-5,0)</f>
-        <v>7</v>
-      </c>
-      <c r="K2" s="12">
-        <f>_xlfn.FLOOR.MATH(J2/10)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+2.5*I2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="K2" s="26">
+        <f>IF(J2&gt;57.5/4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="25">
+        <f>MAX(_xlfn.FLOOR.MATH((J2-5)/10),2)</f>
+        <v>2</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>5</v>
       </c>
-      <c r="C3" s="22">
-        <v>4</v>
+      <c r="C3" s="21">
+        <v>0</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="16"/>
+      <c r="I3" s="15"/>
       <c r="J3" s="10">
-        <f t="shared" ref="J3:J26" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+2.5*I3-5,0)</f>
-        <v>8</v>
-      </c>
-      <c r="K3" s="12">
-        <f t="shared" ref="K3:K26" si="1">_xlfn.FLOOR.MATH(J3/10)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J3:J26" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+2.5*I3,0)</f>
+        <v>5</v>
+      </c>
+      <c r="K3" s="26">
+        <f t="shared" ref="K3:K26" si="1">IF(J3&gt;57.5/4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="25">
+        <f t="shared" ref="L3:L26" si="2">MAX(_xlfn.FLOOR.MATH((J3-5)/10),2)</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>5</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>5</v>
       </c>
       <c r="D4" s="1">
@@ -1042,23 +1511,27 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="16"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="10">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="K4" s="12">
+        <v>20</v>
+      </c>
+      <c r="K4" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L4" s="22"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="22">
+      <c r="B5" s="12"/>
+      <c r="C5" s="21">
         <v>0</v>
       </c>
       <c r="D5" s="1"/>
@@ -1066,25 +1539,29 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="16"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M5" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="22">
+      <c r="B6" s="12"/>
+      <c r="C6" s="21">
         <v>4</v>
       </c>
       <c r="D6" s="1"/>
@@ -1092,28 +1569,32 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="16"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="10">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K6" s="12">
+        <v>8</v>
+      </c>
+      <c r="K6" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L6" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>5</v>
       </c>
-      <c r="C7" s="22">
-        <v>4</v>
+      <c r="C7" s="21">
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1122,25 +1603,29 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="16"/>
+      <c r="I7" s="15"/>
       <c r="J7" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K7" s="12">
+        <v>11</v>
+      </c>
+      <c r="K7" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L7" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="22">
+      <c r="B8" s="12"/>
+      <c r="C8" s="21">
         <v>0</v>
       </c>
       <c r="D8" s="1"/>
@@ -1148,27 +1633,31 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="16"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M8" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13">
-        <v>4</v>
-      </c>
-      <c r="C9" s="22">
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="21">
         <v>3</v>
       </c>
       <c r="D9" s="1"/>
@@ -1176,57 +1665,65 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="16"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K9" s="12">
+        <v>6</v>
+      </c>
+      <c r="K9" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>5</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="16"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13">
-        <v>4</v>
-      </c>
-      <c r="C11" s="22">
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21">
         <v>4</v>
       </c>
       <c r="D11" s="1"/>
@@ -1234,25 +1731,29 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="16"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="K11" s="12">
+        <v>8</v>
+      </c>
+      <c r="K11" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="22">
+      <c r="B12" s="12"/>
+      <c r="C12" s="21">
         <v>1</v>
       </c>
       <c r="D12" s="1"/>
@@ -1260,27 +1761,31 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="16"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="12">
+        <v>2</v>
+      </c>
+      <c r="K12" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L12" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>5</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>1</v>
       </c>
       <c r="D13" s="1"/>
@@ -1288,27 +1793,31 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="16"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K13" s="12">
+        <v>7</v>
+      </c>
+      <c r="K13" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M13" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>5</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <v>4</v>
       </c>
       <c r="D14" s="1"/>
@@ -1316,87 +1825,101 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="16"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K14" s="12">
+        <v>13</v>
+      </c>
+      <c r="K14" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>5</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>4</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="16"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K15" s="12">
+        <v>13</v>
+      </c>
+      <c r="K15" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>5</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>4</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
       </c>
       <c r="E16" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="16"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L16" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>5</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <v>2</v>
       </c>
       <c r="D17" s="1"/>
@@ -1404,27 +1927,31 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="16"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K17" s="12">
+        <v>9</v>
+      </c>
+      <c r="K17" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="22" t="s">
+      <c r="L17" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M17" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>5</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>5</v>
       </c>
       <c r="D18" s="1"/>
@@ -1432,83 +1959,91 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="16"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="10">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K18" s="12">
+        <v>15</v>
+      </c>
+      <c r="K18" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L18" s="22"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
+        <v>0</v>
+      </c>
+      <c r="C19" s="22">
         <v>5</v>
       </c>
-      <c r="C19" s="23">
-        <v>5</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="16"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L19" s="22"/>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>5</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="21">
         <v>4</v>
       </c>
-      <c r="D20" s="1">
-        <v>5</v>
-      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="16"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="13">
-        <v>5</v>
-      </c>
-      <c r="C21" s="22">
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="21">
         <v>4</v>
       </c>
       <c r="D21" s="1"/>
@@ -1516,25 +2051,29 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="16"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L21" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="22">
+      <c r="B22" s="12"/>
+      <c r="C22" s="21">
         <v>4</v>
       </c>
       <c r="D22" s="1"/>
@@ -1542,156 +2081,197 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="16"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="10">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K22" s="12">
+        <v>8</v>
+      </c>
+      <c r="K22" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L22" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>5</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <v>4</v>
       </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="16"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K23" s="12">
+        <v>13</v>
+      </c>
+      <c r="K23" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L23" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>5</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="21">
         <v>4</v>
       </c>
       <c r="D24" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="16"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>5</v>
       </c>
-      <c r="C25" s="22">
-        <v>4</v>
-      </c>
-      <c r="D25" s="1"/>
+      <c r="C25" s="21">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="16"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K25" s="12">
+        <v>7</v>
+      </c>
+      <c r="K25" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L25" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="18">
         <v>5</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="23">
         <v>5</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>5</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="25">
+      <c r="E26" s="13">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="7">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="K26" s="25">
+        <v>20</v>
+      </c>
+      <c r="K26" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L26" s="24"/>
+      <c r="L26" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M26" s="23"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C26 L2:L26">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="C2:C26 M2:M26">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C26">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K26">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L26">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1700,81 +2280,81 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359CE2C1-EB09-4C49-B623-C9ED833C3933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E1EEAC-7F36-4010-8CD9-05428CBE9B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,27 +583,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -651,386 +631,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1373,7 +973,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K2" sqref="K2:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1451,7 +1051,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="26">
-        <f>IF(J2&gt;57.5/4,1,0)</f>
+        <f>IF(J2&gt;57.5/5,1,0)</f>
         <v>0</v>
       </c>
       <c r="L2" s="25">
@@ -1483,7 +1083,7 @@
         <v>5</v>
       </c>
       <c r="K3" s="26">
-        <f t="shared" ref="K3:K26" si="1">IF(J3&gt;57.5/4,1,0)</f>
+        <f t="shared" ref="K3:K26" si="1">IF(J3&gt;57.5/5,1,0)</f>
         <v>0</v>
       </c>
       <c r="L3" s="25">
@@ -1832,7 +1432,7 @@
       </c>
       <c r="K14" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="25">
         <f t="shared" si="2"/>
@@ -1866,7 +1466,7 @@
       </c>
       <c r="K15" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="25">
         <f t="shared" si="2"/>
@@ -2026,7 +1626,7 @@
       </c>
       <c r="K20" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="25">
         <f t="shared" si="2"/>
@@ -2120,7 +1720,7 @@
       </c>
       <c r="K23" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="25">
         <f t="shared" si="2"/>
@@ -2154,7 +1754,7 @@
       </c>
       <c r="K24" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="25">
         <f t="shared" si="2"/>
@@ -2234,43 +1834,43 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C26 M2:M26">
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C26">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K26">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L26">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
